--- a/marc/MARC_fields_not_mapped.xlsx
+++ b/marc/MARC_fields_not_mapped.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="584">
   <si>
     <t>Omission type</t>
   </si>
@@ -1785,6 +1785,9 @@
   </si>
   <si>
     <t>Terms used are not user-friendly; this information is usually better expressed elsewhere in the record</t>
+  </si>
+  <si>
+    <t>Complex data mapping; appears in &lt;2000 records in UNC catalog on 2018-05-21. Need to assess if this adds useful info, and if so, how to map.</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1837,7 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="164" formatCode="000"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1846,7 +1849,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1874,11 +1877,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
-  <autoFilter ref="A1:E18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+  <autoFilter ref="A1:E19"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="MARC tag" dataDxfId="0"/>
-    <tableColumn id="5" name="Field name" dataDxfId="4">
+    <tableColumn id="1" name="MARC tag" dataDxfId="4"/>
+    <tableColumn id="5" name="Field name" dataDxfId="3">
       <calculatedColumnFormula>VLOOKUP(TEXT(A2, "000"),tag_lookup[],2,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" name="Omission type"/>
@@ -1893,9 +1896,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tag_lookup" displayName="tag_lookup" ref="A1:C281" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C281"/>
   <tableColumns count="3">
-    <tableColumn id="22" uniqueName="22" name="MARC tag padded" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="23" uniqueName="23" name="Field name" queryTableFieldId="2" dataDxfId="2"/>
-    <tableColumn id="24" uniqueName="24" name="Other note" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="22" uniqueName="22" name="MARC tag padded" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="23" uniqueName="23" name="Field name" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="24" uniqueName="24" name="Other note" queryTableFieldId="3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2164,10 +2167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,6 +2501,24 @@
       </c>
       <c r="E18" t="s">
         <v>582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>342</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>VLOOKUP(TEXT(A19, "000"),tag_lookup[],2,0)</f>
+        <v>Geospatial Reference Data</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/marc/MARC_fields_not_mapped.xlsx
+++ b/marc/MARC_fields_not_mapped.xlsx
@@ -12,11 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="unmapped_tags" sheetId="1" r:id="rId1"/>
+    <sheet name="all_marc_tags" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">Sheet3!$A$1:$C$281</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">all_marc_tags!$A$1:$C$281</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
